--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -92,12 +92,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +537,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H2">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I2">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J2">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1341725</v>
+        <v>0.1557005</v>
       </c>
       <c r="N2">
-        <v>0.268345</v>
+        <v>0.311401</v>
       </c>
       <c r="O2">
-        <v>0.01633512969336317</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P2">
-        <v>0.01188426112752495</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q2">
-        <v>0.02646532436625</v>
+        <v>0.00455182626725</v>
       </c>
       <c r="R2">
-        <v>0.105861297465</v>
+        <v>0.018207305069</v>
       </c>
       <c r="S2">
-        <v>0.01376813038515773</v>
+        <v>0.009311027869252954</v>
       </c>
       <c r="T2">
-        <v>0.009286991258406794</v>
+        <v>0.005195936644079444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +599,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H3">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I3">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J3">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +623,22 @@
         <v>17.771067</v>
       </c>
       <c r="O3">
-        <v>0.7211927040052828</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P3">
-        <v>0.787031622511101</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q3">
-        <v>1.1684387697165</v>
+        <v>0.1731760860705</v>
       </c>
       <c r="R3">
-        <v>7.010632618299001</v>
+        <v>1.039056516423</v>
       </c>
       <c r="S3">
-        <v>0.6078601987227236</v>
+        <v>0.3542418512964773</v>
       </c>
       <c r="T3">
-        <v>0.6150282057856917</v>
+        <v>0.2965222919312751</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +661,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H4">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I4">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J4">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.007277666666666666</v>
+        <v>0.024117</v>
       </c>
       <c r="N4">
-        <v>0.021833</v>
+        <v>0.072351</v>
       </c>
       <c r="O4">
-        <v>0.0008860357291178598</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P4">
-        <v>0.0009669234500260938</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q4">
-        <v>0.0014355088335</v>
+        <v>0.0007050484365</v>
       </c>
       <c r="R4">
-        <v>0.008613053000999999</v>
+        <v>0.004230290619</v>
       </c>
       <c r="S4">
-        <v>0.0007467988117265678</v>
+        <v>0.001442217970544561</v>
       </c>
       <c r="T4">
-        <v>0.0007556052102509661</v>
+        <v>0.001207225449294613</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +723,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1972485</v>
+        <v>0.0292345</v>
       </c>
       <c r="H5">
-        <v>0.394497</v>
+        <v>0.058469</v>
       </c>
       <c r="I5">
-        <v>0.8428540601518217</v>
+        <v>0.4428765120700495</v>
       </c>
       <c r="J5">
-        <v>0.7814529787550142</v>
+        <v>0.346386487911515</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,33 +741,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.927182</v>
+        <v>1.3023455</v>
       </c>
       <c r="N5">
-        <v>3.854364</v>
+        <v>2.604691</v>
       </c>
       <c r="O5">
-        <v>0.2346290626821072</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P5">
-        <v>0.1706991680729343</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q5">
-        <v>0.380133758727</v>
+        <v>0.03807341951975</v>
       </c>
       <c r="R5">
-        <v>1.520535034908</v>
+        <v>0.152293678079</v>
       </c>
       <c r="S5">
-        <v>0.1977580581112303</v>
+        <v>0.0778814149337746</v>
       </c>
       <c r="T5">
-        <v>0.1333933733615973</v>
+        <v>0.04346103388686591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -782,60 +776,60 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1972485</v>
+        <v>0.036776</v>
       </c>
       <c r="H6">
-        <v>0.394497</v>
+        <v>0.110328</v>
       </c>
       <c r="I6">
-        <v>0.8428540601518217</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J6">
-        <v>0.7814529787550142</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1820473333333333</v>
+        <v>0.1557005</v>
       </c>
       <c r="N6">
-        <v>0.5461419999999999</v>
+        <v>0.311401</v>
       </c>
       <c r="O6">
-        <v>0.02216375785150397</v>
+        <v>0.02102398211576467</v>
       </c>
       <c r="P6">
-        <v>0.02418712530775207</v>
+        <v>0.01500040222529337</v>
       </c>
       <c r="Q6">
-        <v>0.03590856342899999</v>
+        <v>0.005726041587999999</v>
       </c>
       <c r="R6">
-        <v>0.215451380574</v>
+        <v>0.034356249528</v>
       </c>
       <c r="S6">
-        <v>0.01868081329336194</v>
+        <v>0.01171295424651171</v>
       </c>
       <c r="T6">
-        <v>0.01890110111926364</v>
+        <v>0.009804465581213924</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -844,55 +838,55 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1972485</v>
+        <v>0.036776</v>
       </c>
       <c r="H7">
-        <v>0.394497</v>
+        <v>0.110328</v>
       </c>
       <c r="I7">
-        <v>0.8428540601518217</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J7">
-        <v>0.7814529787550142</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.039371</v>
+        <v>5.923689</v>
       </c>
       <c r="N7">
-        <v>0.118113</v>
+        <v>17.771067</v>
       </c>
       <c r="O7">
-        <v>0.004793310038624916</v>
+        <v>0.7998659708565604</v>
       </c>
       <c r="P7">
-        <v>0.005230899530661477</v>
+        <v>0.8560446272575798</v>
       </c>
       <c r="Q7">
-        <v>0.007765870693500001</v>
+        <v>0.217849586664</v>
       </c>
       <c r="R7">
-        <v>0.046595224161</v>
+        <v>1.960646279976</v>
       </c>
       <c r="S7">
-        <v>0.004040060827621496</v>
+        <v>0.4456241195600831</v>
       </c>
       <c r="T7">
-        <v>0.004087702019803617</v>
+        <v>0.5595223353263047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,40 +915,40 @@
         <v>0.110328</v>
       </c>
       <c r="I8">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J8">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1341725</v>
+        <v>0.024117</v>
       </c>
       <c r="N8">
-        <v>0.268345</v>
+        <v>0.072351</v>
       </c>
       <c r="O8">
-        <v>0.01633512969336317</v>
+        <v>0.003256478795417461</v>
       </c>
       <c r="P8">
-        <v>0.01188426112752495</v>
+        <v>0.003485197868350457</v>
       </c>
       <c r="Q8">
-        <v>0.00493432786</v>
+        <v>0.0008869267919999999</v>
       </c>
       <c r="R8">
-        <v>0.02960596716</v>
+        <v>0.007982341128</v>
       </c>
       <c r="S8">
-        <v>0.00256699930820544</v>
+        <v>0.0018142608248729</v>
       </c>
       <c r="T8">
-        <v>0.002597269869118155</v>
+        <v>0.002277972419055843</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +962,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,288 +977,40 @@
         <v>0.110328</v>
       </c>
       <c r="I9">
-        <v>0.1571459398481783</v>
+        <v>0.5571234879299505</v>
       </c>
       <c r="J9">
-        <v>0.2185470212449859</v>
+        <v>0.6536135120884849</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.923689</v>
+        <v>1.3023455</v>
       </c>
       <c r="N9">
-        <v>17.771067</v>
+        <v>2.604691</v>
       </c>
       <c r="O9">
-        <v>0.7211927040052828</v>
+        <v>0.1758535682322574</v>
       </c>
       <c r="P9">
-        <v>0.787031622511101</v>
+        <v>0.1254697726487764</v>
       </c>
       <c r="Q9">
-        <v>0.217849586664</v>
+        <v>0.047895058108</v>
       </c>
       <c r="R9">
-        <v>1.960646279976</v>
+        <v>0.287370348648</v>
       </c>
       <c r="S9">
-        <v>0.1133325052825592</v>
+        <v>0.09797215329848276</v>
       </c>
       <c r="T9">
-        <v>0.1720034167254093</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.036776</v>
-      </c>
-      <c r="H10">
-        <v>0.110328</v>
-      </c>
-      <c r="I10">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J10">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M10">
-        <v>0.007277666666666666</v>
-      </c>
-      <c r="N10">
-        <v>0.021833</v>
-      </c>
-      <c r="O10">
-        <v>0.0008860357291178598</v>
-      </c>
-      <c r="P10">
-        <v>0.0009669234500260938</v>
-      </c>
-      <c r="Q10">
-        <v>0.0002676434693333333</v>
-      </c>
-      <c r="R10">
-        <v>0.002408791224</v>
-      </c>
-      <c r="S10">
-        <v>0.000139236917391292</v>
-      </c>
-      <c r="T10">
-        <v>0.0002113182397751278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.036776</v>
-      </c>
-      <c r="H11">
-        <v>0.110328</v>
-      </c>
-      <c r="I11">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J11">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.927182</v>
-      </c>
-      <c r="N11">
-        <v>3.854364</v>
-      </c>
-      <c r="O11">
-        <v>0.2346290626821072</v>
-      </c>
-      <c r="P11">
-        <v>0.1706991680729343</v>
-      </c>
-      <c r="Q11">
-        <v>0.07087404523199999</v>
-      </c>
-      <c r="R11">
-        <v>0.425244271392</v>
-      </c>
-      <c r="S11">
-        <v>0.03687100457087686</v>
-      </c>
-      <c r="T11">
-        <v>0.037305794711337</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.036776</v>
-      </c>
-      <c r="H12">
-        <v>0.110328</v>
-      </c>
-      <c r="I12">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J12">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.1820473333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.5461419999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.02216375785150397</v>
-      </c>
-      <c r="P12">
-        <v>0.02418712530775207</v>
-      </c>
-      <c r="Q12">
-        <v>0.006694972730666665</v>
-      </c>
-      <c r="R12">
-        <v>0.06025475457599998</v>
-      </c>
-      <c r="S12">
-        <v>0.003482944558142032</v>
-      </c>
-      <c r="T12">
-        <v>0.005286024188488427</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.036776</v>
-      </c>
-      <c r="H13">
-        <v>0.110328</v>
-      </c>
-      <c r="I13">
-        <v>0.1571459398481783</v>
-      </c>
-      <c r="J13">
-        <v>0.2185470212449859</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.039371</v>
-      </c>
-      <c r="N13">
-        <v>0.118113</v>
-      </c>
-      <c r="O13">
-        <v>0.004793310038624916</v>
-      </c>
-      <c r="P13">
-        <v>0.005230899530661477</v>
-      </c>
-      <c r="Q13">
-        <v>0.001447907896</v>
-      </c>
-      <c r="R13">
-        <v>0.013031171064</v>
-      </c>
-      <c r="S13">
-        <v>0.00075324921100342</v>
-      </c>
-      <c r="T13">
-        <v>0.001143197510857861</v>
+        <v>0.08200873876191045</v>
       </c>
     </row>
   </sheetData>
